--- a/output/sites/Mann_Whitney_test_scats_sites.xlsx
+++ b/output/sites/Mann_Whitney_test_scats_sites.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Nutrient</t>
   </si>
@@ -23,10 +23,13 @@
     <t xml:space="preserve">significant</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Zn</t>
@@ -392,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.660399820897768</v>
+        <v>0.453685170118507</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -403,21 +406,21 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0271977733019218</v>
+        <v>0.660399820897768</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0271977733019218</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.000529980456209587</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -425,10 +428,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.557840231505961</v>
+        <v>0.000529980456209587</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -436,10 +439,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0413723283431504</v>
+        <v>0.557840231505961</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -447,9 +450,20 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
+        <v>0.0413723283431504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.708242694255788</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
